--- a/acc1.xlsx
+++ b/acc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB7757D-19D0-4DD3-95B6-EA5AE7745D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487648D7-8D15-42AF-8634-0C4EC7ADFEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Usuário</t>
-  </si>
-  <si>
     <t>Senha</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>password1</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -67,9 +67,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,32 +371,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/acc1.xlsx
+++ b/acc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487648D7-8D15-42AF-8634-0C4EC7ADFEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DB9BB-1D43-4BEC-B014-9B46A1D06937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Senha</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user1</t>
   </si>
@@ -32,13 +29,28 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>password3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +58,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFCECAC3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFCECAC3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF393E40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -63,12 +93,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF393E40"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF393E40"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF393E40"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF393E40"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF393E40"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF393E40"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF393E40"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF393E40"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF393E40"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF393E40"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF393E40"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF393E40"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,31 +465,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
